--- a/Code/Results/Cases/Case_3_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6130106060668936</v>
+        <v>0.1978249331691586</v>
       </c>
       <c r="C2">
-        <v>0.08978075518314199</v>
+        <v>0.03345123140478279</v>
       </c>
       <c r="D2">
-        <v>0.06481115758226963</v>
+        <v>0.02829542261005713</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4310138805255193</v>
+        <v>0.6317922821469537</v>
       </c>
       <c r="G2">
-        <v>0.0007971255593709376</v>
+        <v>0.002418114716083965</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2440743346615797</v>
+        <v>0.4910599711396344</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6500954855182499</v>
+        <v>0.1989937502063128</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.783322065619458</v>
+        <v>0.8875589759514355</v>
       </c>
       <c r="N2">
-        <v>0.6259823943381893</v>
+        <v>1.368790931256127</v>
       </c>
       <c r="O2">
-        <v>1.212188040601518</v>
+        <v>2.142349206341578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5354729122028061</v>
+        <v>0.1737139522058726</v>
       </c>
       <c r="C3">
-        <v>0.08047765504394278</v>
+        <v>0.03034255889001969</v>
       </c>
       <c r="D3">
-        <v>0.05795730075764283</v>
+        <v>0.02592591746183359</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.405792531607517</v>
+        <v>0.6297349220110533</v>
       </c>
       <c r="G3">
-        <v>0.0008004280241106776</v>
+        <v>0.002420221227828925</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2431014342845899</v>
+        <v>0.494195492585348</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.569927472053422</v>
+        <v>0.1736316488547374</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.3715072307469</v>
+        <v>0.790241033318793</v>
       </c>
       <c r="N3">
-        <v>0.6668854166397828</v>
+        <v>1.385109425173036</v>
       </c>
       <c r="O3">
-        <v>1.173322562419798</v>
+        <v>2.147525867525161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4877590662495237</v>
+        <v>0.1588884327514535</v>
       </c>
       <c r="C4">
-        <v>0.07473385938114774</v>
+        <v>0.02841830620812402</v>
       </c>
       <c r="D4">
-        <v>0.05372500989628293</v>
+        <v>0.02445805973165704</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.391110932858723</v>
+        <v>0.6288431017936205</v>
       </c>
       <c r="G4">
-        <v>0.0008025153145831239</v>
+        <v>0.002421583355402657</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2430235473826272</v>
+        <v>0.4963726320953299</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5205573450301699</v>
+        <v>0.158011040340881</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.127050843876944</v>
+        <v>0.7310048131484592</v>
       </c>
       <c r="N4">
-        <v>0.6929897255070365</v>
+        <v>1.395621479854954</v>
       </c>
       <c r="O4">
-        <v>1.151945420318953</v>
+        <v>2.151877565559445</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4682870918038162</v>
+        <v>0.1528420462135358</v>
       </c>
       <c r="C5">
-        <v>0.07238535923564626</v>
+        <v>0.02763030913501296</v>
       </c>
       <c r="D5">
-        <v>0.05199432205016308</v>
+        <v>0.02385667140514158</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3853182902990326</v>
+        <v>0.6285730735984885</v>
       </c>
       <c r="G5">
-        <v>0.0008033814122893928</v>
+        <v>0.002422155768602624</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2431162601368371</v>
+        <v>0.4973231528854427</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5004004872499195</v>
+        <v>0.1516338889658329</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.029189576179533</v>
+        <v>0.7069898664091596</v>
       </c>
       <c r="N5">
-        <v>0.7038705791842723</v>
+        <v>1.400028982284982</v>
       </c>
       <c r="O5">
-        <v>1.14382532538383</v>
+        <v>2.153945840081263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4650520311852944</v>
+        <v>0.1518377686176962</v>
       </c>
       <c r="C6">
-        <v>0.07199491993343088</v>
+        <v>0.02749923193683657</v>
       </c>
       <c r="D6">
-        <v>0.05170658121707561</v>
+        <v>0.02375661768862614</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3843675783876463</v>
+        <v>0.6285338765906232</v>
       </c>
       <c r="G6">
-        <v>0.0008035261785468838</v>
+        <v>0.002422251865909277</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2431389986925545</v>
+        <v>0.4974848096360134</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4970511135306879</v>
+        <v>0.1505742799610488</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.01303641240149</v>
+        <v>0.7030095419686688</v>
       </c>
       <c r="N6">
-        <v>0.7056918581494056</v>
+        <v>1.400768317136775</v>
       </c>
       <c r="O6">
-        <v>1.14251175011421</v>
+        <v>2.154307085492846</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4874965768639754</v>
+        <v>0.1588069081331582</v>
       </c>
       <c r="C7">
-        <v>0.07470221840721791</v>
+        <v>0.02840769451668734</v>
       </c>
       <c r="D7">
-        <v>0.05370169347633436</v>
+        <v>0.02444996220370399</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3910320563763747</v>
+        <v>0.6288390819419831</v>
       </c>
       <c r="G7">
-        <v>0.0008025269316149103</v>
+        <v>0.002421591005034242</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.243024301702679</v>
+        <v>0.4963851948151969</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5202856587751654</v>
+        <v>0.157925082277643</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.125724374161592</v>
+        <v>0.7306804434995371</v>
       </c>
       <c r="N7">
-        <v>0.6931354914601062</v>
+        <v>1.395680420002756</v>
       </c>
       <c r="O7">
-        <v>1.151833559120576</v>
+        <v>2.151904265033281</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5862964793054459</v>
+        <v>0.1895161665353839</v>
       </c>
       <c r="C8">
-        <v>0.08657969678121447</v>
+        <v>0.0323826122230173</v>
       </c>
       <c r="D8">
-        <v>0.06245295865141287</v>
+        <v>0.02748113146429887</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4221430905270722</v>
+        <v>0.6310058176044535</v>
       </c>
       <c r="G8">
-        <v>0.0007982522244966948</v>
+        <v>0.00241882681127712</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2436272140006217</v>
+        <v>0.4920887964555902</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.622483277047337</v>
+        <v>0.1902591815677681</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.639354575263184</v>
+        <v>0.853892812363668</v>
       </c>
       <c r="N8">
-        <v>0.6398768409555959</v>
+        <v>1.374315301770745</v>
       </c>
       <c r="O8">
-        <v>1.198249984862343</v>
+        <v>2.143890560608128</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.779282017817053</v>
+        <v>0.2495496360358516</v>
       </c>
       <c r="C9">
-        <v>0.1096121435034263</v>
+        <v>0.04005230873728749</v>
       </c>
       <c r="D9">
-        <v>0.07942083542813094</v>
+        <v>0.03332091536897508</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4901258954961847</v>
+        <v>0.6382028155314501</v>
       </c>
       <c r="G9">
-        <v>0.0007903147372271269</v>
+        <v>0.002413949008642973</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2492331106764958</v>
+        <v>0.4856639078779601</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8217794591399468</v>
+        <v>0.2532654661944775</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.732504363701821</v>
+        <v>1.099894404191076</v>
       </c>
       <c r="N9">
-        <v>0.543553556129611</v>
+        <v>1.33632813621848</v>
       </c>
       <c r="O9">
-        <v>1.310666894437503</v>
+        <v>2.13749095671335</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9206944170536531</v>
+        <v>0.2935213868330777</v>
       </c>
       <c r="C10">
-        <v>0.1263558244119878</v>
+        <v>0.04560876030262762</v>
       </c>
       <c r="D10">
-        <v>0.09176173574397239</v>
+        <v>0.03754627809394862</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5452335755788837</v>
+        <v>0.6452908855658706</v>
       </c>
       <c r="G10">
-        <v>0.0007847095001949959</v>
+        <v>0.002410692671786063</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2565101455084395</v>
+        <v>0.4821654118750018</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9675674361251652</v>
+        <v>0.2992911899580974</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.621652787422818</v>
+        <v>1.283709821964734</v>
       </c>
       <c r="N10">
-        <v>0.4781036131123688</v>
+        <v>1.310804957828459</v>
       </c>
       <c r="O10">
-        <v>1.408860114873136</v>
+        <v>2.138480157487777</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9849520920917314</v>
+        <v>0.313491849838698</v>
       </c>
       <c r="C11">
-        <v>0.1339252448590003</v>
+        <v>0.04811905015962736</v>
       </c>
       <c r="D11">
-        <v>0.09734507891027278</v>
+        <v>0.03945405813947644</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5716546993282279</v>
+        <v>0.6489071961430071</v>
       </c>
       <c r="G11">
-        <v>0.0007821961115817142</v>
+        <v>0.002409281620339467</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2606233084029341</v>
+        <v>0.4808397314588717</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.033743900232082</v>
+        <v>0.3201677967536227</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.05505289384935</v>
+        <v>1.368091651637599</v>
       </c>
       <c r="N11">
-        <v>0.4495651907814739</v>
+        <v>1.299712453130891</v>
       </c>
       <c r="O11">
-        <v>1.45756768851453</v>
+        <v>2.140168811174817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.009273165418392</v>
+        <v>0.3210490262205496</v>
       </c>
       <c r="C12">
-        <v>0.1367834717238878</v>
+        <v>0.04906708500452339</v>
       </c>
       <c r="D12">
-        <v>0.09945439236046383</v>
+        <v>0.04017438537842821</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5818762754302185</v>
+        <v>0.6503329894089163</v>
       </c>
       <c r="G12">
-        <v>0.0007812482723486999</v>
+        <v>0.002408757339986988</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2623075169287752</v>
+        <v>0.4803759964467957</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.058779445411005</v>
+        <v>0.3280640443915672</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.224485258458444</v>
+        <v>1.40016188746435</v>
       </c>
       <c r="N12">
-        <v>0.4389427218732038</v>
+        <v>1.295586602515842</v>
       </c>
       <c r="O12">
-        <v>1.476655211758697</v>
+        <v>2.140986564287346</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.004035762299338</v>
+        <v>0.3194216929870777</v>
       </c>
       <c r="C13">
-        <v>0.1361682913002085</v>
+        <v>0.04886302343879834</v>
       </c>
       <c r="D13">
-        <v>0.09900034721658812</v>
+        <v>0.04001934444307409</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5796648644949656</v>
+        <v>0.6500234117293502</v>
       </c>
       <c r="G13">
-        <v>0.0007814522561951019</v>
+        <v>0.002408869806655479</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2619389650460171</v>
+        <v>0.4804741671563697</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.053388743050533</v>
+        <v>0.3263638670504463</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.187736683705495</v>
+        <v>1.393249687678505</v>
       </c>
       <c r="N13">
-        <v>0.4412221553255709</v>
+        <v>1.2964718564241</v>
       </c>
       <c r="O13">
-        <v>1.472514687896705</v>
+        <v>2.14080251385775</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9869532558772107</v>
+        <v>0.3141136906323538</v>
       </c>
       <c r="C14">
-        <v>0.1341605658955132</v>
+        <v>0.04819709715634701</v>
       </c>
       <c r="D14">
-        <v>0.09751871733973871</v>
+        <v>0.03951336238236536</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5724911590111503</v>
+        <v>0.6490233670685441</v>
       </c>
       <c r="G14">
-        <v>0.0007821180622359027</v>
+        <v>0.002409238286213458</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2607592614970997</v>
+        <v>0.4808008124003074</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.035804099751203</v>
+        <v>0.3208176146727624</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.068877919215993</v>
+        <v>1.370727710843127</v>
       </c>
       <c r="N14">
-        <v>0.4486875405366835</v>
+        <v>1.299371520229004</v>
       </c>
       <c r="O14">
-        <v>1.459124755712253</v>
+        <v>2.14023251385396</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9764880977367625</v>
+        <v>0.3108616924027388</v>
       </c>
       <c r="C15">
-        <v>0.1329296657153094</v>
+        <v>0.04778886324230314</v>
       </c>
       <c r="D15">
-        <v>0.09661050676560734</v>
+        <v>0.0392031580036587</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5681259537811911</v>
+        <v>0.6484181530727113</v>
       </c>
       <c r="G15">
-        <v>0.0007825263547057913</v>
+        <v>0.002409465298310034</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2600535100977588</v>
+        <v>0.4810058775814881</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.025029724231558</v>
+        <v>0.3174191517069289</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.996805257478712</v>
+        <v>1.35694775137361</v>
       </c>
       <c r="N15">
-        <v>0.4532845153974225</v>
+        <v>1.301157372472353</v>
       </c>
       <c r="O15">
-        <v>1.451008771161185</v>
+        <v>2.13990659722009</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9164934860172309</v>
+        <v>0.2922155706775698</v>
       </c>
       <c r="C16">
-        <v>0.1258600896514253</v>
+        <v>0.04544435234842581</v>
       </c>
       <c r="D16">
-        <v>0.0913961913240442</v>
+        <v>0.03742130758463702</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5435359188493933</v>
+        <v>0.6450624390062458</v>
       </c>
       <c r="G16">
-        <v>0.0007848743838138975</v>
+        <v>0.002410786297129384</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2562584190374935</v>
+        <v>0.482257401037387</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9632395220092462</v>
+        <v>0.2979255866727328</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.594002630718123</v>
+        <v>1.278211216853464</v>
       </c>
       <c r="N16">
-        <v>0.4799941094425719</v>
+        <v>1.311540316443624</v>
       </c>
       <c r="O16">
-        <v>1.405763362658035</v>
+        <v>2.138394740238141</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8796697539324896</v>
+        <v>0.2807680760341498</v>
       </c>
       <c r="C17">
-        <v>0.1215102115117048</v>
+        <v>0.04400157993099185</v>
       </c>
       <c r="D17">
-        <v>0.08818919999439601</v>
+        <v>0.03632449199729137</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.528811841066954</v>
+        <v>0.6431042081978262</v>
       </c>
       <c r="G17">
-        <v>0.0007863233143690828</v>
+        <v>0.002411614649203609</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2541433879829249</v>
+        <v>0.4830932834778103</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9252947643387301</v>
+        <v>0.2859509799764908</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.355030683025461</v>
+        <v>1.23010925987829</v>
       </c>
       <c r="N17">
-        <v>0.4967008598137159</v>
+        <v>1.318042713783958</v>
       </c>
       <c r="O17">
-        <v>1.379082944425505</v>
+        <v>2.137784642055294</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.858483159816501</v>
+        <v>0.2741807518741837</v>
       </c>
       <c r="C18">
-        <v>0.1190039243925725</v>
+        <v>0.04317010425130263</v>
       </c>
       <c r="D18">
-        <v>0.08634178950720894</v>
+        <v>0.03569228375172884</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5204687578396943</v>
+        <v>0.6420147731246999</v>
       </c>
       <c r="G18">
-        <v>0.0007871602263272962</v>
+        <v>0.002412097712934483</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2530016931674872</v>
+        <v>0.4835990766044738</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.903456775376128</v>
+        <v>0.2790578193080933</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.22021812909027</v>
+        <v>1.202513706047213</v>
       </c>
       <c r="N18">
-        <v>0.5064259943484082</v>
+        <v>1.321831480077567</v>
       </c>
       <c r="O18">
-        <v>1.36411307409881</v>
+        <v>2.137550307575395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8513086403856676</v>
+        <v>0.2719498931844839</v>
       </c>
       <c r="C19">
-        <v>0.1181546235083175</v>
+        <v>0.04288830254674281</v>
       </c>
       <c r="D19">
-        <v>0.08571581531919037</v>
+        <v>0.03547799852766076</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5176649196235843</v>
+        <v>0.6416522440298067</v>
       </c>
       <c r="G19">
-        <v>0.0007874442312538045</v>
+        <v>0.00241226240813556</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2526276667363732</v>
+        <v>0.4837746244362613</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8960606162493434</v>
+        <v>0.2767229537657272</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.174995715402289</v>
+        <v>1.193182384261618</v>
       </c>
       <c r="N19">
-        <v>0.5097384429872953</v>
+        <v>1.323122661624245</v>
       </c>
       <c r="O19">
-        <v>1.359107349970628</v>
+        <v>2.137490982892672</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8835903882471428</v>
+        <v>0.2819869986083745</v>
       </c>
       <c r="C20">
-        <v>0.1219737219049648</v>
+        <v>0.04415533476999656</v>
       </c>
       <c r="D20">
-        <v>0.08853088644843865</v>
+        <v>0.03644138980865108</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.530366072845915</v>
+        <v>0.643308847363123</v>
       </c>
       <c r="G20">
-        <v>0.0007861687170557441</v>
+        <v>0.002411525785280364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2543607171275006</v>
+        <v>0.4830017129860025</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9293354293502034</v>
+        <v>0.2872262894287587</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.380189284864784</v>
+        <v>1.235222354138529</v>
       </c>
       <c r="N20">
-        <v>0.4949103568408955</v>
+        <v>1.317345475113054</v>
       </c>
       <c r="O20">
-        <v>1.381883781914667</v>
+        <v>2.13783752140111</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9919711472656161</v>
+        <v>0.3156729250671617</v>
       </c>
       <c r="C21">
-        <v>0.1347505181427664</v>
+        <v>0.04839276573470386</v>
       </c>
       <c r="D21">
-        <v>0.09795404886440195</v>
+        <v>0.03966203912338528</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.574592184408381</v>
+        <v>0.6493155742781695</v>
       </c>
       <c r="G21">
-        <v>0.0007819224042895114</v>
+        <v>0.002409129782351326</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2611022350603847</v>
+        <v>0.4807038297035966</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.040969827654948</v>
+        <v>0.3224469393219636</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.103634574557944</v>
+        <v>1.377339739123727</v>
       </c>
       <c r="N21">
-        <v>0.4464897189598034</v>
+        <v>1.298517791868578</v>
       </c>
       <c r="O21">
-        <v>1.463039712405191</v>
+        <v>2.140395096315672</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.062732587932885</v>
+        <v>0.3376580430853551</v>
       </c>
       <c r="C22">
-        <v>0.1430523194231199</v>
+        <v>0.05114723710001101</v>
       </c>
       <c r="D22">
-        <v>0.1040831515985019</v>
+        <v>0.04175461453917251</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6047708886015926</v>
+        <v>0.6535699226587184</v>
       </c>
       <c r="G22">
-        <v>0.0007791692220371735</v>
+        <v>0.00240762243675386</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2662527646508188</v>
+        <v>0.47942512843602</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.11378567362695</v>
+        <v>0.3454113857322056</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.608218105143209</v>
+        <v>1.47090502708194</v>
       </c>
       <c r="N22">
-        <v>0.4159216654321209</v>
+        <v>1.286647937999993</v>
       </c>
       <c r="O22">
-        <v>1.51986350250769</v>
+        <v>2.143105953276319</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02497347616702</v>
+        <v>0.325927145326034</v>
       </c>
       <c r="C23">
-        <v>0.1386265385991976</v>
+        <v>0.049678510294072</v>
       </c>
       <c r="D23">
-        <v>0.1008148917727496</v>
+        <v>0.04063890779431034</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.58853921227238</v>
+        <v>0.6512692232640731</v>
       </c>
       <c r="G23">
-        <v>0.0007806371534923368</v>
+        <v>0.002408421591990981</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2634315805697405</v>
+        <v>0.4800871654034822</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.074937447829058</v>
+        <v>0.333159973418816</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.33553086894544</v>
+        <v>1.420902616640547</v>
       </c>
       <c r="N23">
-        <v>0.4321356983846112</v>
+        <v>1.292943242642462</v>
       </c>
       <c r="O23">
-        <v>1.489166398206692</v>
+        <v>2.141563959032226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8818179196498761</v>
+        <v>0.2814359423828137</v>
       </c>
       <c r="C24">
-        <v>0.121764185845791</v>
+        <v>0.04408582845312026</v>
       </c>
       <c r="D24">
-        <v>0.0883764213890359</v>
+        <v>0.03638854539546799</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5296630263230142</v>
+        <v>0.6432162166887849</v>
       </c>
       <c r="G24">
-        <v>0.000786238598188786</v>
+        <v>0.002411565939420855</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2542622321294239</v>
+        <v>0.4830430334133844</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9275087162450291</v>
+        <v>0.2866497493938027</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.36880714097822</v>
+        <v>1.232910541277477</v>
       </c>
       <c r="N24">
-        <v>0.4957194693589884</v>
+        <v>1.317660539581533</v>
       </c>
       <c r="O24">
-        <v>1.380616378339624</v>
+        <v>2.137813252042747</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.727144783091461</v>
+        <v>0.2333311788004266</v>
       </c>
       <c r="C25">
-        <v>0.1034104415064689</v>
+        <v>0.03799107353489717</v>
       </c>
       <c r="D25">
-        <v>0.07485176447672615</v>
+        <v>0.03175242535902356</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4708997088080267</v>
+        <v>0.6359398963555236</v>
       </c>
       <c r="G25">
-        <v>0.0007924185932415928</v>
+        <v>0.002415210839241654</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2471980861004432</v>
+        <v>0.4871876139626927</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7679767552978944</v>
+        <v>0.2362656388399671</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.424538431862047</v>
+        <v>1.032833813049137</v>
       </c>
       <c r="N25">
-        <v>0.5687050233460891</v>
+        <v>1.346185859688617</v>
       </c>
       <c r="O25">
-        <v>1.277716135343155</v>
+        <v>2.138223709925541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1978249331691586</v>
+        <v>0.6130106060668936</v>
       </c>
       <c r="C2">
-        <v>0.03345123140478279</v>
+        <v>0.08978075518290041</v>
       </c>
       <c r="D2">
-        <v>0.02829542261005713</v>
+        <v>0.06481115758218436</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6317922821469537</v>
+        <v>0.4310138805255264</v>
       </c>
       <c r="G2">
-        <v>0.002418114716083965</v>
+        <v>0.0007971255593712259</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4910599711396344</v>
+        <v>0.2440743346615761</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1989937502063128</v>
+        <v>0.650095485518122</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8875589759514355</v>
+        <v>2.783322065619458</v>
       </c>
       <c r="N2">
-        <v>1.368790931256127</v>
+        <v>0.6259823943381324</v>
       </c>
       <c r="O2">
-        <v>2.142349206341578</v>
+        <v>1.212188040601518</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1737139522058726</v>
+        <v>0.5354729122028061</v>
       </c>
       <c r="C3">
-        <v>0.03034255889001969</v>
+        <v>0.08047765504387172</v>
       </c>
       <c r="D3">
-        <v>0.02592591746183359</v>
+        <v>0.05795730075763572</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6297349220110533</v>
+        <v>0.4057925316075099</v>
       </c>
       <c r="G3">
-        <v>0.002420221227828925</v>
+        <v>0.0008004280241101309</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.494195492585348</v>
+        <v>0.243101434284597</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1736316488547374</v>
+        <v>0.5699274720535215</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.790241033318793</v>
+        <v>2.3715072307469</v>
       </c>
       <c r="N3">
-        <v>1.385109425173036</v>
+        <v>0.6668854166397118</v>
       </c>
       <c r="O3">
-        <v>2.147525867525161</v>
+        <v>1.173322562419784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1588884327514535</v>
+        <v>0.4877590662496232</v>
       </c>
       <c r="C4">
-        <v>0.02841830620812402</v>
+        <v>0.07473385938097721</v>
       </c>
       <c r="D4">
-        <v>0.02445805973165704</v>
+        <v>0.05372500989615503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6288431017936205</v>
+        <v>0.3911109328587088</v>
       </c>
       <c r="G4">
-        <v>0.002421583355402657</v>
+        <v>0.0008025153145237355</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4963726320953299</v>
+        <v>0.2430235473826272</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.158011040340881</v>
+        <v>0.5205573450302268</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7310048131484592</v>
+        <v>2.12705084387693</v>
       </c>
       <c r="N4">
-        <v>1.395621479854954</v>
+        <v>0.6929897255070934</v>
       </c>
       <c r="O4">
-        <v>2.151877565559445</v>
+        <v>1.151945420319009</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1528420462135358</v>
+        <v>0.4682870918039299</v>
       </c>
       <c r="C5">
-        <v>0.02763030913501296</v>
+        <v>0.07238535923593759</v>
       </c>
       <c r="D5">
-        <v>0.02385667140514158</v>
+        <v>0.05199432205009202</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6285730735984885</v>
+        <v>0.3853182902990255</v>
       </c>
       <c r="G5">
-        <v>0.002422155768602624</v>
+        <v>0.0008033814123068182</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4973231528854427</v>
+        <v>0.2431162601368158</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1516338889658329</v>
+        <v>0.5004004872498768</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7069898664091596</v>
+        <v>2.029189576179533</v>
       </c>
       <c r="N5">
-        <v>1.400028982284982</v>
+        <v>0.7038705791842581</v>
       </c>
       <c r="O5">
-        <v>2.153945840081263</v>
+        <v>1.143825325383744</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1518377686176962</v>
+        <v>0.4650520311850386</v>
       </c>
       <c r="C6">
-        <v>0.02749923193683657</v>
+        <v>0.07199491993296192</v>
       </c>
       <c r="D6">
-        <v>0.02375661768862614</v>
+        <v>0.05170658121708271</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6285338765906232</v>
+        <v>0.3843675783876179</v>
       </c>
       <c r="G6">
-        <v>0.002422251865909277</v>
+        <v>0.0008035261785466549</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4974848096360134</v>
+        <v>0.243138998692551</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1505742799610488</v>
+        <v>0.4970511135307447</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7030095419686688</v>
+        <v>2.01303641240149</v>
       </c>
       <c r="N6">
-        <v>1.400768317136775</v>
+        <v>0.7056918581493861</v>
       </c>
       <c r="O6">
-        <v>2.154307085492846</v>
+        <v>1.142511750114252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1588069081331582</v>
+        <v>0.4874965768642028</v>
       </c>
       <c r="C7">
-        <v>0.02840769451668734</v>
+        <v>0.0747022184071966</v>
       </c>
       <c r="D7">
-        <v>0.02444996220370399</v>
+        <v>0.05370169347633436</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6288390819419831</v>
+        <v>0.3910320563763676</v>
       </c>
       <c r="G7">
-        <v>0.002421591005034242</v>
+        <v>0.0008025269315390548</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4963851948151969</v>
+        <v>0.2430243017026719</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.157925082277643</v>
+        <v>0.5202856587750944</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7306804434995371</v>
+        <v>2.125724374161578</v>
       </c>
       <c r="N7">
-        <v>1.395680420002756</v>
+        <v>0.6931354914600387</v>
       </c>
       <c r="O7">
-        <v>2.151904265033281</v>
+        <v>1.151833559120504</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1895161665353839</v>
+        <v>0.5862964793056733</v>
       </c>
       <c r="C8">
-        <v>0.0323826122230173</v>
+        <v>0.08657969678158395</v>
       </c>
       <c r="D8">
-        <v>0.02748113146429887</v>
+        <v>0.0624529586514484</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6310058176044535</v>
+        <v>0.4221430905270651</v>
       </c>
       <c r="G8">
-        <v>0.00241882681127712</v>
+        <v>0.0007982522244771029</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4920887964555902</v>
+        <v>0.2436272140006324</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1902591815677681</v>
+        <v>0.622483277047138</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.853892812363668</v>
+        <v>2.639354575263198</v>
       </c>
       <c r="N8">
-        <v>1.374315301770745</v>
+        <v>0.6398768409555764</v>
       </c>
       <c r="O8">
-        <v>2.143890560608128</v>
+        <v>1.198249984862272</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2495496360358516</v>
+        <v>0.7792820178172235</v>
       </c>
       <c r="C9">
-        <v>0.04005230873728749</v>
+        <v>0.1096121435034405</v>
       </c>
       <c r="D9">
-        <v>0.03332091536897508</v>
+        <v>0.07942083542797462</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6382028155314501</v>
+        <v>0.4901258954961776</v>
       </c>
       <c r="G9">
-        <v>0.002413949008642973</v>
+        <v>0.0007903147371695618</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4856639078779601</v>
+        <v>0.249233110676478</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2532654661944775</v>
+        <v>0.8217794591401457</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.099894404191076</v>
+        <v>3.732504363701821</v>
       </c>
       <c r="N9">
-        <v>1.33632813621848</v>
+        <v>0.5435535561296039</v>
       </c>
       <c r="O9">
-        <v>2.13749095671335</v>
+        <v>1.310666894437531</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2935213868330777</v>
+        <v>0.9206944170537952</v>
       </c>
       <c r="C10">
-        <v>0.04560876030262762</v>
+        <v>0.1263558244117604</v>
       </c>
       <c r="D10">
-        <v>0.03754627809394862</v>
+        <v>0.09176173574408608</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6452908855658706</v>
+        <v>0.545233575578898</v>
       </c>
       <c r="G10">
-        <v>0.002410692671786063</v>
+        <v>0.0007847095002170151</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4821654118750018</v>
+        <v>0.2565101455084502</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2992911899580974</v>
+        <v>0.9675674361251367</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.283709821964734</v>
+        <v>4.621652787422803</v>
       </c>
       <c r="N10">
-        <v>1.310804957828459</v>
+        <v>0.478103613112367</v>
       </c>
       <c r="O10">
-        <v>2.138480157487777</v>
+        <v>1.408860114873107</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.313491849838698</v>
+        <v>0.9849520920916461</v>
       </c>
       <c r="C11">
-        <v>0.04811905015962736</v>
+        <v>0.1339252448587871</v>
       </c>
       <c r="D11">
-        <v>0.03945405813947644</v>
+        <v>0.09734507891037936</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6489071961430071</v>
+        <v>0.5716546993282137</v>
       </c>
       <c r="G11">
-        <v>0.002409281620339467</v>
+        <v>0.0007821961115637086</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4808397314588717</v>
+        <v>0.2606233084029626</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3201677967536227</v>
+        <v>1.033743900232196</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.368091651637599</v>
+        <v>5.055052893849364</v>
       </c>
       <c r="N11">
-        <v>1.299712453130891</v>
+        <v>0.4495651907814029</v>
       </c>
       <c r="O11">
-        <v>2.140168811174817</v>
+        <v>1.457567688514558</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3210490262205496</v>
+        <v>1.009273165418364</v>
       </c>
       <c r="C12">
-        <v>0.04906708500452339</v>
+        <v>0.136783471723902</v>
       </c>
       <c r="D12">
-        <v>0.04017438537842821</v>
+        <v>0.09945439236045672</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6503329894089163</v>
+        <v>0.5818762754302185</v>
       </c>
       <c r="G12">
-        <v>0.002408757339986988</v>
+        <v>0.0007812482723476994</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4803759964467957</v>
+        <v>0.2623075169287716</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3280640443915672</v>
+        <v>1.05877944541092</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.40016188746435</v>
+        <v>5.224485258458429</v>
       </c>
       <c r="N12">
-        <v>1.295586602515842</v>
+        <v>0.43894272187325</v>
       </c>
       <c r="O12">
-        <v>2.140986564287346</v>
+        <v>1.476655211758725</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3194216929870777</v>
+        <v>1.004035762299395</v>
       </c>
       <c r="C13">
-        <v>0.04886302343879834</v>
+        <v>0.1361682913002937</v>
       </c>
       <c r="D13">
-        <v>0.04001934444307409</v>
+        <v>0.09900034721630391</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6500234117293502</v>
+        <v>0.5796648644949656</v>
       </c>
       <c r="G13">
-        <v>0.002408869806655479</v>
+        <v>0.0007814522561666047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4804741671563697</v>
+        <v>0.2619389650460455</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3263638670504463</v>
+        <v>1.053388743050533</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.393249687678505</v>
+        <v>5.187736683705509</v>
       </c>
       <c r="N13">
-        <v>1.2964718564241</v>
+        <v>0.4412221553255709</v>
       </c>
       <c r="O13">
-        <v>2.14080251385775</v>
+        <v>1.472514687896705</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3141136906323538</v>
+        <v>0.986953255877097</v>
       </c>
       <c r="C14">
-        <v>0.04819709715634701</v>
+        <v>0.1341605658952858</v>
       </c>
       <c r="D14">
-        <v>0.03951336238236536</v>
+        <v>0.09751871733983819</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6490233670685441</v>
+        <v>0.5724911590111788</v>
       </c>
       <c r="G14">
-        <v>0.002409238286213458</v>
+        <v>0.000782118062236646</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4808008124003074</v>
+        <v>0.2607592614970713</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3208176146727624</v>
+        <v>1.035804099751232</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.370727710843127</v>
+        <v>5.06887791921605</v>
       </c>
       <c r="N14">
-        <v>1.299371520229004</v>
+        <v>0.4486875405366852</v>
       </c>
       <c r="O14">
-        <v>2.14023251385396</v>
+        <v>1.459124755712224</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3108616924027388</v>
+        <v>0.9764880977366772</v>
       </c>
       <c r="C15">
-        <v>0.04778886324230314</v>
+        <v>0.1329296657149257</v>
       </c>
       <c r="D15">
-        <v>0.0392031580036587</v>
+        <v>0.09661050676554339</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6484181530727113</v>
+        <v>0.5681259537811627</v>
       </c>
       <c r="G15">
-        <v>0.002409465298310034</v>
+        <v>0.0007825263547284544</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4810058775814881</v>
+        <v>0.2600535100977481</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3174191517069289</v>
+        <v>1.025029724231501</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.35694775137361</v>
+        <v>4.996805257478755</v>
       </c>
       <c r="N15">
-        <v>1.301157372472353</v>
+        <v>0.4532845153974083</v>
       </c>
       <c r="O15">
-        <v>2.13990659722009</v>
+        <v>1.451008771161071</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2922155706775698</v>
+        <v>0.9164934860172593</v>
       </c>
       <c r="C16">
-        <v>0.04544435234842581</v>
+        <v>0.1258600896514963</v>
       </c>
       <c r="D16">
-        <v>0.03742130758463702</v>
+        <v>0.0913961913239234</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6450624390062458</v>
+        <v>0.5435359188493933</v>
       </c>
       <c r="G16">
-        <v>0.002410786297129384</v>
+        <v>0.0007848743838939448</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.482257401037387</v>
+        <v>0.2562584190374899</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2979255866727328</v>
+        <v>0.9632395220091325</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.278211216853464</v>
+        <v>4.59400263071818</v>
       </c>
       <c r="N16">
-        <v>1.311540316443624</v>
+        <v>0.4799941094425684</v>
       </c>
       <c r="O16">
-        <v>2.138394740238141</v>
+        <v>1.405763362658064</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2807680760341498</v>
+        <v>0.879669753932518</v>
       </c>
       <c r="C17">
-        <v>0.04400157993099185</v>
+        <v>0.1215102115117048</v>
       </c>
       <c r="D17">
-        <v>0.03632449199729137</v>
+        <v>0.08818919999467312</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6431042081978262</v>
+        <v>0.5288118410669398</v>
       </c>
       <c r="G17">
-        <v>0.002411614649203609</v>
+        <v>0.0007863233143913036</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4830932834778103</v>
+        <v>0.2541433879829285</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2859509799764908</v>
+        <v>0.9252947643387301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.23010925987829</v>
+        <v>4.355030683025433</v>
       </c>
       <c r="N17">
-        <v>1.318042713783958</v>
+        <v>0.4967008598137088</v>
       </c>
       <c r="O17">
-        <v>2.137784642055294</v>
+        <v>1.379082944425477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2741807518741837</v>
+        <v>0.8584831598162452</v>
       </c>
       <c r="C18">
-        <v>0.04317010425130263</v>
+        <v>0.1190039243922456</v>
       </c>
       <c r="D18">
-        <v>0.03569228375172884</v>
+        <v>0.08634178950703841</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6420147731246999</v>
+        <v>0.5204687578396943</v>
       </c>
       <c r="G18">
-        <v>0.002412097712934483</v>
+        <v>0.0007871602262702035</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4835990766044738</v>
+        <v>0.2530016931674837</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2790578193080933</v>
+        <v>0.903456775376128</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.202513706047213</v>
+        <v>4.22021812909027</v>
       </c>
       <c r="N18">
-        <v>1.321831480077567</v>
+        <v>0.5064259943484526</v>
       </c>
       <c r="O18">
-        <v>2.137550307575395</v>
+        <v>1.364113074098782</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2719498931844839</v>
+        <v>0.8513086403855823</v>
       </c>
       <c r="C19">
-        <v>0.04288830254674281</v>
+        <v>0.1181546235083033</v>
       </c>
       <c r="D19">
-        <v>0.03547799852766076</v>
+        <v>0.08571581531906958</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6416522440298067</v>
+        <v>0.5176649196235985</v>
       </c>
       <c r="G19">
-        <v>0.00241226240813556</v>
+        <v>0.0007874442312526621</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4837746244362613</v>
+        <v>0.2526276667363732</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2767229537657272</v>
+        <v>0.8960606162493718</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.193182384261618</v>
+        <v>4.174995715402304</v>
       </c>
       <c r="N19">
-        <v>1.323122661624245</v>
+        <v>0.5097384429872811</v>
       </c>
       <c r="O19">
-        <v>2.137490982892672</v>
+        <v>1.359107349970628</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2819869986083745</v>
+        <v>0.8835903882469722</v>
       </c>
       <c r="C20">
-        <v>0.04415533476999656</v>
+        <v>0.1219737219053343</v>
       </c>
       <c r="D20">
-        <v>0.03644138980865108</v>
+        <v>0.08853088644858786</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.643308847363123</v>
+        <v>0.5303660728459221</v>
       </c>
       <c r="G20">
-        <v>0.002411525785280364</v>
+        <v>0.000786168716975536</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4830017129860025</v>
+        <v>0.2543607171275006</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2872262894287587</v>
+        <v>0.9293354293503455</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.235222354138529</v>
+        <v>4.380189284864784</v>
       </c>
       <c r="N20">
-        <v>1.317345475113054</v>
+        <v>0.4949103568408866</v>
       </c>
       <c r="O20">
-        <v>2.13783752140111</v>
+        <v>1.381883781914667</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3156729250671617</v>
+        <v>0.9919711472655308</v>
       </c>
       <c r="C21">
-        <v>0.04839276573470386</v>
+        <v>0.1347505181426527</v>
       </c>
       <c r="D21">
-        <v>0.03966203912338528</v>
+        <v>0.09795404886467907</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6493155742781695</v>
+        <v>0.5745921844083597</v>
       </c>
       <c r="G21">
-        <v>0.002409129782351326</v>
+        <v>0.0007819224043472923</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4807038297035966</v>
+        <v>0.2611022350603776</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3224469393219636</v>
+        <v>1.040969827654976</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.377339739123727</v>
+        <v>5.103634574557915</v>
       </c>
       <c r="N21">
-        <v>1.298517791868578</v>
+        <v>0.4464897189597963</v>
       </c>
       <c r="O21">
-        <v>2.140395096315672</v>
+        <v>1.463039712405219</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3376580430853551</v>
+        <v>1.062732587932913</v>
       </c>
       <c r="C22">
-        <v>0.05114723710001101</v>
+        <v>0.1430523194230489</v>
       </c>
       <c r="D22">
-        <v>0.04175461453917251</v>
+        <v>0.1040831515987293</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6535699226587184</v>
+        <v>0.6047708886015997</v>
       </c>
       <c r="G22">
-        <v>0.00240762243675386</v>
+        <v>0.0007791692220132709</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.47942512843602</v>
+        <v>0.2662527646508188</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3454113857322056</v>
+        <v>1.113785673626978</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.47090502708194</v>
+        <v>5.608218105143195</v>
       </c>
       <c r="N22">
-        <v>1.286647937999993</v>
+        <v>0.4159216654321209</v>
       </c>
       <c r="O22">
-        <v>2.143105953276319</v>
+        <v>1.51986350250769</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.325927145326034</v>
+        <v>1.024973476166878</v>
       </c>
       <c r="C23">
-        <v>0.049678510294072</v>
+        <v>0.138626538599425</v>
       </c>
       <c r="D23">
-        <v>0.04063890779431034</v>
+        <v>0.1008148917724725</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6512692232640731</v>
+        <v>0.5885392122723943</v>
       </c>
       <c r="G23">
-        <v>0.002408421591990981</v>
+        <v>0.0007806371535436394</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4800871654034822</v>
+        <v>0.2634315805697085</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.333159973418816</v>
+        <v>1.074937447829058</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.420902616640547</v>
+        <v>5.335530868945455</v>
       </c>
       <c r="N23">
-        <v>1.292943242642462</v>
+        <v>0.4321356983846041</v>
       </c>
       <c r="O23">
-        <v>2.141563959032226</v>
+        <v>1.48916639820672</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2814359423828137</v>
+        <v>0.8818179196497908</v>
       </c>
       <c r="C24">
-        <v>0.04408582845312026</v>
+        <v>0.1217641858454499</v>
       </c>
       <c r="D24">
-        <v>0.03638854539546799</v>
+        <v>0.08837642138915669</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6432162166887849</v>
+        <v>0.5296630263230142</v>
       </c>
       <c r="G24">
-        <v>0.002411565939420855</v>
+        <v>0.0007862385983042108</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4830430334133844</v>
+        <v>0.2542622321294274</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2866497493938027</v>
+        <v>0.9275087162449722</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.232910541277477</v>
+        <v>4.368807140978234</v>
       </c>
       <c r="N24">
-        <v>1.317660539581533</v>
+        <v>0.4957194693589919</v>
       </c>
       <c r="O24">
-        <v>2.137813252042747</v>
+        <v>1.380616378339624</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2333311788004266</v>
+        <v>0.7271447830915747</v>
       </c>
       <c r="C25">
-        <v>0.03799107353489717</v>
+        <v>0.1034104415063837</v>
       </c>
       <c r="D25">
-        <v>0.03175242535902356</v>
+        <v>0.07485176447715958</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6359398963555236</v>
+        <v>0.4708997088080267</v>
       </c>
       <c r="G25">
-        <v>0.002415210839241654</v>
+        <v>0.0007924185932991815</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4871876139626927</v>
+        <v>0.247198086100429</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2362656388399671</v>
+        <v>0.7679767552979371</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.032833813049137</v>
+        <v>3.424538431862061</v>
       </c>
       <c r="N25">
-        <v>1.346185859688617</v>
+        <v>0.5687050233460749</v>
       </c>
       <c r="O25">
-        <v>2.138223709925541</v>
+        <v>1.277716135343098</v>
       </c>
     </row>
   </sheetData>
